--- a/Schema/19E_Golub/PZG_CelPracy.xlsx
+++ b/Schema/19E_Golub/PZG_CelPracy.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19_Golub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19E_Golub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239D1413-3C4E-44B7-BCB0-AD8217EC5F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DE3F6C-FEA3-4A32-B659-CF30D69DF501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{E08B9BC3-9A8A-430E-88D7-B253C7557D7F}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{DF3FA550-6BD1-4476-BDC9-8DD2E845A946}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F26A2992-88A3-4B76-9752-9A236FFFFCE5}" name="PZG_CelPracy" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19_Golub\PZG_CelPracy.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" xr16:uid="{579C1EEE-AFDF-4347-9240-3A006A5BC270}" name="PZG_CelPracy" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19E_Golub\PZG_CelPracy.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Kolumna1</t>
   </si>
@@ -39,67 +49,25 @@
     <t>value</t>
   </si>
   <si>
-    <t>założenie ewidencji gruntów i budynków (EGiB)</t>
-  </si>
-  <si>
-    <t>modernizacja ewidencji gruntów i budynków (EGiB)</t>
-  </si>
-  <si>
-    <t>aktualizacja ewidencji gruntów i budynków (EGiB)</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych obiektów topograficznych (BDOT500)</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych obiektów topograficznych (BDOT500)</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych szczegółowych osnów geodezyjnych (BDSOG)</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych szczegółowych osnów geodezyjnych (BDSOG)</t>
-  </si>
-  <si>
-    <t>mapa z projektem podziału nieruchomości</t>
-  </si>
-  <si>
-    <t>mapa z projektem podziału nieruchomości rolnej/leśnej</t>
-  </si>
-  <si>
-    <t>mapa z projektem scalenia i podziału nieruchomości</t>
-  </si>
-  <si>
-    <t>projekt scalenia gruntów</t>
-  </si>
-  <si>
-    <t>projekt wymiany gruntów</t>
-  </si>
-  <si>
-    <t>inna mapa do celów prawnych</t>
-  </si>
-  <si>
-    <t>rozgraniczenie nieruchomości</t>
-  </si>
-  <si>
-    <t>wznowienie znaków granicznych/wyznaczenie punktów/ustalenie przebiegu granic działek</t>
-  </si>
-  <si>
-    <t>mapa do celów projektowych</t>
-  </si>
-  <si>
-    <t>geodezyjna inwentaryzacja powykonawcza obiektów budowlanych</t>
-  </si>
-  <si>
-    <t>tyczenie obiektów budowlanych</t>
-  </si>
-  <si>
-    <t>inny cel</t>
+    <t>sporządzenie dokumentacji geodezyjnej na potrzeby rozgraniczenia nieruchomości</t>
+  </si>
+  <si>
+    <t>sporządzenie mapy do celów projektowych</t>
+  </si>
+  <si>
+    <t>wznowienie znaków granicznych, wyznaczenie punktów granicznych lub ustalenie przebiegu granic działek ewidencyjnych</t>
+  </si>
+  <si>
+    <t>sporządzenie mapy z projektem podziału nieruchomości</t>
+  </si>
+  <si>
+    <t>sporządzenie projektu scalenia i podziału nieruchomości</t>
+  </si>
+  <si>
+    <t>sporządzenie innej mapy do celów prawnych</t>
+  </si>
+  <si>
+    <t>sporządzenie projektu scalenia lub wymiany gruntów</t>
   </si>
 </sst>
 </file>
@@ -187,16 +155,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{202AC977-2479-4BA7-9715-C3EBC7D0EB27}" name="Tabela1" displayName="Tabela1" ref="A1:C22" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C22" xr:uid="{EE8EB11D-216E-40E5-925B-7AD05DF121B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02CFC66E-2E32-44E8-ADFE-6E89FAFC2724}" name="Tabela1" displayName="Tabela1" ref="A1:C8" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C8" xr:uid="{9F6B78AD-7410-4DBE-AE1B-6471112E54CE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CB4257BA-EDBF-4A35-89BD-EF929C203CCA}" uniqueName="key" name="key">
+    <tableColumn id="1" xr3:uid="{97FC7F7F-29D7-4AF0-A2DA-389A81390282}" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/PZG_CelPracy/entry/key" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9DBEBC20-522A-451E-8149-8B68674D869F}" uniqueName="value" name="value">
+    <tableColumn id="2" xr3:uid="{0D8882DC-4965-4887-AA01-E48F679AAB60}" uniqueName="value" name="value">
       <xmlColumnPr mapId="1" xpath="/PZG_CelPracy/entry/value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F662050D-B86E-4BE4-94FF-8EAC5325BB49}" uniqueName="3" name="Kolumna1" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{59F7CFD6-0E22-4C75-A8B6-3F12F06C4A2B}" uniqueName="3" name="Kolumna1" dataDxfId="0">
       <calculatedColumnFormula>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -501,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,254 +497,86 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="założenie ewidencji gruntów i budynków (EGiB)"/&gt;</v>
+        <v>&lt;enumeration value="sporządzenie mapy do celów projektowych"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="modernizacja ewidencji gruntów i budynków (EGiB)"/&gt;</v>
+        <v>&lt;enumeration value="wznowienie znaków granicznych, wyznaczenie punktów granicznych lub ustalenie przebiegu granic działek ewidencyjnych"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja ewidencji gruntów i budynków (EGiB)"/&gt;</v>
+        <v>&lt;enumeration value="sporządzenie mapy z projektem podziału nieruchomości"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="sporządzenie projektu scalenia i podziału nieruchomości"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="sporządzenie innej mapy do celów prawnych"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych (BDOT500)"/&gt;</v>
+        <v>&lt;enumeration value="sporządzenie projektu scalenia lub wymiany gruntów"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych (BDOT500)"/&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych szczegółowych osnów geodezyjnych (BDSOG)"/&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych szczegółowych osnów geodezyjnych (BDSOG)"/&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa z projektem podziału nieruchomości"/&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa z projektem podziału nieruchomości rolnej/leśnej"/&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa z projektem scalenia i podziału nieruchomości"/&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="projekt scalenia gruntów"/&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="projekt wymiany gruntów"/&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inna mapa do celów prawnych"/&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="rozgraniczenie nieruchomości"/&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wznowienie znaków granicznych/wyznaczenie punktów/ustalenie przebiegu granic działek"/&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa do celów projektowych"/&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="geodezyjna inwentaryzacja powykonawcza obiektów budowlanych"/&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="tyczenie obiektów budowlanych"/&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inny cel"/&gt;</v>
+        <v>&lt;enumeration value="sporządzenie dokumentacji geodezyjnej na potrzeby rozgraniczenia nieruchomości"/&gt;</v>
       </c>
     </row>
   </sheetData>
